--- a/Muscle_length_sensory/IR_TOF/O_Ring_calculator.xlsx
+++ b/Muscle_length_sensory/IR_TOF/O_Ring_calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Muscle-Sensory\Muscle_length_sensory\IR_TOF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7B46551-A1FB-4BB2-93B8-0796052A1E48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC98C69A-D412-4AC5-A95D-AD2766D65C90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="-16320" windowWidth="28110" windowHeight="16440" xr2:uid="{60C77F3B-EFC3-43F4-BD97-394561E686E5}"/>
+    <workbookView xWindow="-38520" yWindow="3930" windowWidth="38640" windowHeight="15990" xr2:uid="{60C77F3B-EFC3-43F4-BD97-394561E686E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,6 +415,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
@@ -446,8 +447,8 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <f>4*D7*(PI()-2)+2*(D5+D6)</f>
-        <v>88.392741228718336</v>
+        <f>2*D7*(PI()-4)+2*(D5+D6)</f>
+        <v>75.826370614359163</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
@@ -456,7 +457,7 @@
       </c>
       <c r="D9">
         <f>D8*0.0393701</f>
-        <v>3.4800310614487637</v>
+        <v>2.9852917937243815</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -465,7 +466,7 @@
       </c>
       <c r="D10">
         <f>D8/PI()</f>
-        <v>28.136283399986596</v>
+        <v>24.136283399986596</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
@@ -474,7 +475,7 @@
       </c>
       <c r="D11">
         <f>D9/PI()</f>
-        <v>1.1077282910858122</v>
+        <v>0.9502478910858122</v>
       </c>
     </row>
   </sheetData>
